--- a/tcamt-web/src/main/resources/TCAMT test data default categories.xlsx
+++ b/tcamt-web/src/main/resources/TCAMT test data default categories.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14240"/>
   </bookViews>
   <sheets>
-    <sheet name="2015-ONC-Admin (OBX-5 is DT)" sheetId="5" r:id="rId1"/>
-    <sheet name="2015-ONC-Admin (OBX-5 is CE)" sheetId="9" r:id="rId2"/>
-    <sheet name="2015-ONC-Query" sheetId="3" r:id="rId3"/>
+    <sheet name="2015-ONC-Admin" sheetId="5" r:id="rId1"/>
+    <sheet name="2015-ONC-Query" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="139">
   <si>
     <t>segment</t>
   </si>
@@ -789,7 +788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -797,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182:XFD182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2805,10 +2804,10 @@
         <v>116</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2816,7 +2815,7 @@
         <v>116</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C183" t="s">
         <v>138</v>
@@ -2827,7 +2826,7 @@
         <v>116</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C184" t="s">
         <v>138</v>
@@ -2837,22 +2836,22 @@
       <c r="A185" t="s">
         <v>116</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>18</v>
+      <c r="B185" s="3">
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>116</v>
       </c>
-      <c r="B186" s="3">
-        <v>11</v>
-      </c>
-      <c r="C186" t="s">
-        <v>4</v>
+      <c r="B186" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2860,10 +2859,10 @@
         <v>116</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="C187" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2871,10 +2870,10 @@
         <v>116</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2882,20 +2881,9 @@
         <v>116</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C189" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>116</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C190" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2911,2143 +2899,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C192"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="33.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="3">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="3">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>43</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>43</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="3">
-        <v>24</v>
-      </c>
-      <c r="C73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="3">
-        <v>25</v>
-      </c>
-      <c r="C74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>43</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B76" s="3">
-        <v>30</v>
-      </c>
-      <c r="C76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>70</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="3">
-        <v>12</v>
-      </c>
-      <c r="C80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="3">
-        <v>13</v>
-      </c>
-      <c r="C81" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" s="3">
-        <v>16</v>
-      </c>
-      <c r="C82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="3">
-        <v>17</v>
-      </c>
-      <c r="C83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" s="3">
-        <v>18</v>
-      </c>
-      <c r="C84" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85" s="3">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>71</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C86" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C87" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>71</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>71</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>71</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>71</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>71</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>71</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C93" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>71</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>71</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>71</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>71</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>71</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C98" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>71</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>71</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>71</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>71</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>71</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C103" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>71</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C104" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>83</v>
-      </c>
-      <c r="B105" s="3">
-        <v>1</v>
-      </c>
-      <c r="C105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>83</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>83</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C107" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>83</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C108" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>83</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>83</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>83</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>83</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C113" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>83</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C114" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>83</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C115" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>83</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C116" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>83</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C117" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>83</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C118" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>83</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>83</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>83</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C121" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>83</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C122" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>83</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>83</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C124" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>83</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C125" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>83</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C126" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>83</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>83</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>83</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>83</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C130" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>83</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C131" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>83</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C132" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>83</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C133" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>83</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C134" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>101</v>
-      </c>
-      <c r="B135" s="3">
-        <v>1</v>
-      </c>
-      <c r="C135" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>101</v>
-      </c>
-      <c r="B136" s="3">
-        <v>2</v>
-      </c>
-      <c r="C136" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>101</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C137" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>101</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C138" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>101</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>101</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C140" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>101</v>
-      </c>
-      <c r="B141" s="3">
-        <v>6</v>
-      </c>
-      <c r="C141" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>101</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C142" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>101</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C143" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>101</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C144" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>101</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C145" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>101</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C146" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>101</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C147" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>101</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C148" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>101</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C149" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>101</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C150" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>101</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C151" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>101</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C152" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>101</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>101</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>101</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C155" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>101</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C156" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>101</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C157" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>101</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>101</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>101</v>
-      </c>
-      <c r="B160" s="3">
-        <v>15</v>
-      </c>
-      <c r="C160" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>101</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C161" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>101</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C162" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>101</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C163" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>101</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C164" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>101</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C165" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>101</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C166" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>101</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C167" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>101</v>
-      </c>
-      <c r="B168" s="3">
-        <v>20</v>
-      </c>
-      <c r="C168" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>101</v>
-      </c>
-      <c r="B169" s="3">
-        <v>21</v>
-      </c>
-      <c r="C169" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>112</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C170" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>112</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C171" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>112</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C172" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>112</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C173" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>112</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C174" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>112</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C175" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>116</v>
-      </c>
-      <c r="B176" s="3">
-        <v>1</v>
-      </c>
-      <c r="C176" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>116</v>
-      </c>
-      <c r="B177" s="3">
-        <v>2</v>
-      </c>
-      <c r="C177" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>116</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>116</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C179" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>116</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C180" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>116</v>
-      </c>
-      <c r="B181" s="3">
-        <v>4</v>
-      </c>
-      <c r="C181" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>116</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C182" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>116</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>116</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C184" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>116</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C185" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
-        <v>116</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C186" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>116</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C187" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>116</v>
-      </c>
-      <c r="B188" s="3">
-        <v>11</v>
-      </c>
-      <c r="C188" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>116</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>116</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C190" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>116</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C191" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>116</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C192" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>

--- a/tcamt-web/src/main/resources/TCAMT test data default categories.xlsx
+++ b/tcamt-web/src/main/resources/TCAMT test data default categories.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jungyubw/Documents/Works/Projects/tcamt/tcamt-web/src/main/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14240"/>
+    <workbookView xWindow="2360" yWindow="2520" windowWidth="28800" windowHeight="14240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2015-ONC-Admin" sheetId="5" r:id="rId1"/>
     <sheet name="2015-ONC-Query" sheetId="3" r:id="rId2"/>
+    <sheet name="2015-ONC-SS-Send" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="158">
   <si>
     <t>segment</t>
   </si>
@@ -440,13 +446,70 @@
   </si>
   <si>
     <t>NonPresence</t>
+  </si>
+  <si>
+    <t>Here I think we override profile with TC data</t>
+  </si>
+  <si>
+    <t>DG1</t>
+  </si>
+  <si>
+    <t>PV2</t>
+  </si>
+  <si>
+    <t>45_1</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>44_1</t>
+  </si>
+  <si>
+    <t>19_4_3</t>
+  </si>
+  <si>
+    <t>19_4_2</t>
+  </si>
+  <si>
+    <t>19_4_1</t>
+  </si>
+  <si>
+    <t>19_1</t>
+  </si>
+  <si>
+    <t>11_9</t>
+  </si>
+  <si>
+    <t>EVN</t>
+  </si>
+  <si>
+    <t>Accept Acknowledgment Type</t>
+  </si>
+  <si>
+    <t>IG Info</t>
+  </si>
+  <si>
+    <t>OBX-3.1 Info</t>
+  </si>
+  <si>
+    <t>Data Element Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,13 +548,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -503,20 +598,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Good 2" xfId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -788,7 +924,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,17 +934,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182:XFD182"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +955,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -830,7 +966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -841,7 +977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -852,7 +988,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -863,7 +999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -874,7 +1010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -885,7 +1021,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -896,7 +1032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -907,7 +1043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -918,7 +1054,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -929,7 +1065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -940,7 +1076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -951,7 +1087,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -962,7 +1098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -973,7 +1109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -984,7 +1120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -995,7 +1131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1006,7 +1142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +1153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1028,7 +1164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1061,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1072,7 +1208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1083,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1263,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1138,7 +1274,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1193,7 +1329,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1204,7 +1340,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1215,7 +1351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1226,7 +1362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1237,7 +1373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1248,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1259,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1270,7 +1406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1281,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1292,7 +1428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1303,7 +1439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1314,7 +1450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -1325,7 +1461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -1336,7 +1472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -1347,7 +1483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -1358,7 +1494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1369,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -1380,7 +1516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -1391,7 +1527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -1402,7 +1538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -1413,7 +1549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -1424,7 +1560,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -1435,7 +1571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -1446,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -1457,7 +1593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -1468,7 +1604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -1479,7 +1615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -1490,7 +1626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -1501,7 +1637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -1512,7 +1648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -1523,7 +1659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -1534,7 +1670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>43</v>
       </c>
@@ -1545,7 +1681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -1556,7 +1692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -1567,7 +1703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>43</v>
       </c>
@@ -1578,7 +1714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -1589,7 +1725,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -1600,7 +1736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -1611,7 +1747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -1622,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -1633,7 +1769,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -1644,7 +1780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -1655,7 +1791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>70</v>
       </c>
@@ -1666,7 +1802,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -1677,7 +1813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -1688,7 +1824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>70</v>
       </c>
@@ -1699,7 +1835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>70</v>
       </c>
@@ -1710,7 +1846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>70</v>
       </c>
@@ -1721,7 +1857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>70</v>
       </c>
@@ -1732,7 +1868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>71</v>
       </c>
@@ -1743,7 +1879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>71</v>
       </c>
@@ -1754,7 +1890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>71</v>
       </c>
@@ -1765,7 +1901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>71</v>
       </c>
@@ -1776,7 +1912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -1787,7 +1923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>71</v>
       </c>
@@ -1798,7 +1934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -1809,7 +1945,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -1820,7 +1956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>71</v>
       </c>
@@ -1831,7 +1967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>71</v>
       </c>
@@ -1842,7 +1978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>71</v>
       </c>
@@ -1853,7 +1989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>71</v>
       </c>
@@ -1864,7 +2000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>71</v>
       </c>
@@ -1875,7 +2011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -1886,7 +2022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -1897,7 +2033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>71</v>
       </c>
@@ -1908,7 +2044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>71</v>
       </c>
@@ -1919,7 +2055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>71</v>
       </c>
@@ -1930,7 +2066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>71</v>
       </c>
@@ -1941,7 +2077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -1952,7 +2088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>83</v>
       </c>
@@ -1963,7 +2099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -1974,7 +2110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -1985,7 +2121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>83</v>
       </c>
@@ -1996,7 +2132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -2007,7 +2143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -2018,7 +2154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -2029,7 +2165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -2040,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>83</v>
       </c>
@@ -2051,7 +2187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>83</v>
       </c>
@@ -2062,7 +2198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>83</v>
       </c>
@@ -2073,7 +2209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>83</v>
       </c>
@@ -2084,7 +2220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>83</v>
       </c>
@@ -2095,7 +2231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -2106,7 +2242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>83</v>
       </c>
@@ -2117,7 +2253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>83</v>
       </c>
@@ -2128,7 +2264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>83</v>
       </c>
@@ -2139,7 +2275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>83</v>
       </c>
@@ -2150,7 +2286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>83</v>
       </c>
@@ -2161,7 +2297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>83</v>
       </c>
@@ -2172,7 +2308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>83</v>
       </c>
@@ -2183,7 +2319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>83</v>
       </c>
@@ -2194,7 +2330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>83</v>
       </c>
@@ -2205,7 +2341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>83</v>
       </c>
@@ -2216,7 +2352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>83</v>
       </c>
@@ -2227,7 +2363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>83</v>
       </c>
@@ -2238,7 +2374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>83</v>
       </c>
@@ -2249,7 +2385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>83</v>
       </c>
@@ -2260,7 +2396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>83</v>
       </c>
@@ -2271,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>83</v>
       </c>
@@ -2282,7 +2418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>101</v>
       </c>
@@ -2293,7 +2429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>101</v>
       </c>
@@ -2304,7 +2440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>101</v>
       </c>
@@ -2315,7 +2451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>101</v>
       </c>
@@ -2326,7 +2462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>101</v>
       </c>
@@ -2337,7 +2473,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>101</v>
       </c>
@@ -2348,7 +2484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>101</v>
       </c>
@@ -2359,7 +2495,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>101</v>
       </c>
@@ -2370,7 +2506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>101</v>
       </c>
@@ -2381,7 +2517,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>101</v>
       </c>
@@ -2392,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>101</v>
       </c>
@@ -2403,7 +2539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>101</v>
       </c>
@@ -2414,7 +2550,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>101</v>
       </c>
@@ -2425,7 +2561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>101</v>
       </c>
@@ -2436,7 +2572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>101</v>
       </c>
@@ -2447,7 +2583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>101</v>
       </c>
@@ -2458,7 +2594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>101</v>
       </c>
@@ -2469,7 +2605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>101</v>
       </c>
@@ -2480,7 +2616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>101</v>
       </c>
@@ -2491,7 +2627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>101</v>
       </c>
@@ -2502,7 +2638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>101</v>
       </c>
@@ -2513,7 +2649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>101</v>
       </c>
@@ -2524,7 +2660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>101</v>
       </c>
@@ -2535,7 +2671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>101</v>
       </c>
@@ -2546,7 +2682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>101</v>
       </c>
@@ -2557,7 +2693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>101</v>
       </c>
@@ -2568,7 +2704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>101</v>
       </c>
@@ -2579,7 +2715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>101</v>
       </c>
@@ -2590,7 +2726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>101</v>
       </c>
@@ -2601,7 +2737,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>101</v>
       </c>
@@ -2612,7 +2748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>101</v>
       </c>
@@ -2623,7 +2759,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>101</v>
       </c>
@@ -2634,7 +2770,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>101</v>
       </c>
@@ -2645,7 +2781,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>101</v>
       </c>
@@ -2656,7 +2792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>101</v>
       </c>
@@ -2667,7 +2803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>112</v>
       </c>
@@ -2678,7 +2814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>112</v>
       </c>
@@ -2689,7 +2825,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>112</v>
       </c>
@@ -2700,7 +2836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>112</v>
       </c>
@@ -2711,7 +2847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>112</v>
       </c>
@@ -2722,7 +2858,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>112</v>
       </c>
@@ -2733,7 +2869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>116</v>
       </c>
@@ -2744,7 +2880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>116</v>
       </c>
@@ -2755,7 +2891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>116</v>
       </c>
@@ -2766,7 +2902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>116</v>
       </c>
@@ -2777,7 +2913,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>116</v>
       </c>
@@ -2788,7 +2924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>116</v>
       </c>
@@ -2799,7 +2935,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>116</v>
       </c>
@@ -2810,7 +2946,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>116</v>
       </c>
@@ -2821,7 +2957,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>116</v>
       </c>
@@ -2832,7 +2968,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>116</v>
       </c>
@@ -2843,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>116</v>
       </c>
@@ -2854,7 +2990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>116</v>
       </c>
@@ -2865,7 +3001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>116</v>
       </c>
@@ -2876,7 +3012,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>116</v>
       </c>
@@ -2890,11 +3026,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2902,18 +3033,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.83203125" style="3"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2924,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2935,7 +3066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2946,7 +3077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2958,7 +3089,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2969,7 +3100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2980,7 +3111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2992,7 +3123,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -3003,7 +3134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3014,7 +3145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3026,7 +3157,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3037,7 +3168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3048,7 +3179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3060,7 +3191,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3071,7 +3202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3082,7 +3213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3094,7 +3225,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -3105,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -3116,7 +3247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -3127,7 +3258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -3138,7 +3269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3149,7 +3280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3160,7 +3291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3171,7 +3302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3182,7 +3313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3194,7 +3325,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -3206,7 +3337,7 @@
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -3217,7 +3348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -3228,7 +3359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -3240,7 +3371,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -3252,7 +3383,7 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -3263,7 +3394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -3274,7 +3405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -3285,7 +3416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -3296,7 +3427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -3308,7 +3439,7 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -3320,7 +3451,7 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -3331,7 +3462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -3342,7 +3473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -3353,7 +3484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -3364,7 +3495,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -3375,7 +3506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -3386,7 +3517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -3397,7 +3528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -3408,7 +3539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -3419,7 +3550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -3430,7 +3561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -3441,7 +3572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -3452,7 +3583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>118</v>
       </c>
@@ -3463,7 +3594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -3474,7 +3605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -3485,7 +3616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -3496,7 +3627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -3507,7 +3638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -3518,7 +3649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -3529,7 +3660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -3540,18 +3671,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="3">
-        <v>7</v>
+      <c r="B57" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -3562,7 +3693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -3573,7 +3704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -3584,7 +3715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -3595,7 +3726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -3606,7 +3737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -3617,7 +3748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -3628,7 +3759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -3639,7 +3770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -3650,7 +3781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -3661,7 +3792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -3672,7 +3803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -3683,7 +3814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -3694,7 +3825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -3705,7 +3836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -3716,7 +3847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -3727,7 +3858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -3738,7 +3869,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>127</v>
       </c>
@@ -3751,10 +3882,783 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="45" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="6">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="13">
+        <v>36</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="10">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="10">
+        <v>6</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="6">
+        <v>2</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="6">
+        <v>11</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>